--- a/data_analyzed/Power Score (w-kg)/Power Score (w-kg)_trainings_conditioning.xlsx
+++ b/data_analyzed/Power Score (w-kg)/Power Score (w-kg)_trainings_conditioning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,212 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Brad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brooke Hughes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>C. McKendrick</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>E. Lewis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Goblirsch</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Grawl</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Longo</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Mak Dutch</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Marley Dutch</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>McConnell</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Vivadelli</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Wilson</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -525,544 +655,1086 @@
         <v>44857</v>
       </c>
       <c r="B2" t="n">
+        <v>7.4726</v>
+      </c>
+      <c r="C2" t="n">
         <v>7.6787</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.587300000000001</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>8.180400000000001</v>
+        <v>9.587300000000001</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.7857</v>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>10.0346</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.2422</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.7817</v>
+        <v>6.3409</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
+        <v>7.7094</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8.180400000000001</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>9.2247</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>6.8624</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.5273</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8.4354</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>10.0346</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>6.9107</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.2422</v>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>7.7817</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5.571</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
         <v>6.7112</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>6.7287</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>6.7288</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>6.5263</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44950</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>3.2588</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.3272</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>8.111000000000001</v>
+        <v>5.3272</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>7.6658</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>4.4404</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>9.502800000000001</v>
+        <v>3.4803</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.111000000000001</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>2.7456</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>3.1758</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.4404</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>9.502800000000001</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
         <v>5.5798</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>4.9489</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>3.1452</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>44952</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>6.8114</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.2417</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>6.2417</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6.1256</v>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>7.836</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.6834</v>
+        <v>6.0213</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
+        <v>5.6893</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>5.4562</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>7.836</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>6.8604</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>6.6834</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
         <v>5.5159</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>7.0918</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>6.8198</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>4.8014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.1688</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>5.6693</v>
+        <v>5.1688</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>5.2283</v>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>6.2008</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.732</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.7712</v>
+        <v>6.4543</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
+        <v>5.7525</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.6693</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>5.399</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>6.2008</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>6.2477</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.732</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>5.7712</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
         <v>4.8937</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>5.5026</v>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>6.1067</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44964</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>6.6632</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.6803</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>9.606</v>
+        <v>11.6803</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>5.9304</v>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>10.6696</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.0624</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.5417</v>
+        <v>8.1591</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.606</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>4.2103</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>10.6696</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>9.2881</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.0624</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>6.5417</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
         <v>8.7462</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>9.4534</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>5.9926</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44967</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>5.7382</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.2296</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>7.2296</v>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>6.6788</v>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>5.6959</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.9054</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.8525</v>
+        <v>5.9311</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
+        <v>5.8386</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>0.5775</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>5.6959</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>5.7125</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.9054</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>4.8525</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
         <v>5.4133</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>5.9068</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>5.525</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44971</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>4.8848</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.6893</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>6.432</v>
+        <v>3.6893</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>3.8393</v>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>5.5817</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.6328</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.0026</v>
+        <v>4.6917</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
+        <v>4.3573</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.432</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>3.2874</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>5.5817</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.6328</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>5.0026</v>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
         <v>3.8758</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>5.0034</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44988</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>8.588699999999999</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>9.3947</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>8.710900000000001</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>9.3947</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>9.7242</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>9.303000000000001</v>
+      </c>
+      <c r="AF9" t="n">
         <v>9.8759</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
         <v>9.4084</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
         <v>7.9237</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>10.9819</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>8.860300000000001</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44991</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>10.2421</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.2189</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>12.2189</v>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>9.898099999999999</v>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>10.2164</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
         <v>12.3879</v>
       </c>
-      <c r="K10" t="n">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>10.7199</v>
+      </c>
+      <c r="AF10" t="n">
         <v>9.9513</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AG10" t="n">
+        <v>8.615600000000001</v>
+      </c>
+      <c r="AH10" t="n">
         <v>4.605</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
         <v>11.6545</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="n">
         <v>11.2287</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44992</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>4.2087</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.9954</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5.0007</v>
+        <v>4.9954</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5.657</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.1932</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.6454</v>
+        <v>4.6977</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
+        <v>6.5446</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.0007</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>4.5043</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>5.657</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>4.4682</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.1932</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.7559</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4.6454</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
         <v>3.886</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
         <v>4.1522</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6.7935</v>
-      </c>
+        <v>45005</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>6.006</v>
+        <v>3.1108</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>8.083600000000001</v>
+        <v>2.8951</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.0479</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>7.9958</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.2049</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.4859</v>
+        <v>3.3835</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>4.9203</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>7.3683</v>
-      </c>
+        <v>3.9457</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.3754</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>1.5173</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>3.4559</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>3.0864</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>2.6224</v>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>3.2085</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="n">
+        <v>3.1092</v>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>3.0278</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45024</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.274</v>
-      </c>
+        <v>45022</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6.8149</v>
+        <v>6.7935</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8.0298</v>
+        <v>6.006</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>9.2561</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.2817</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.4029</v>
+        <v>6.7811</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>8.0276</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>8.083600000000001</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>6.8596</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>7.9958</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>7.8989</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6.2049</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.1256</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.4859</v>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>4.9203</v>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="n">
+        <v>5.6088</v>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="n">
+        <v>7.3683</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6.7128</v>
-      </c>
+        <v>45024</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>8.1274</v>
+        <v>6.274</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>8.4659</v>
+        <v>6.8149</v>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>5.6219</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>9.977</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.5208</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>8.834199999999999</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>8.773400000000001</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>8.0298</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>6.5283</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>9.2561</v>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>6.2817</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.2497</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.4029</v>
+      </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="n">
+        <v>7.4011</v>
+      </c>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>8.0276</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.6922</v>
-      </c>
+        <v>45025</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>2.7738</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2.6275</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.6184</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>2.8847</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>2.7964</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>9.153600000000001</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45147</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.558</v>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>2.5558</v>
+        <v>6.7128</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>2.6048</v>
+        <v>8.1274</v>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>2.2813</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.7929</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2713</v>
-      </c>
+      <c r="H16" t="n">
+        <v>6.2047</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>2.2914</v>
+        <v>7.1763</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>2.3728</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>2.6712</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>8.4659</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>1.7163</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>9.977</v>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>6.5208</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.8248</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>8.834199999999999</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>8.3141</v>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>8.773400000000001</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45148</v>
+        <v>45034</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2.6922</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1070,192 +1742,346 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5.1914</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2.8355</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>2.7738</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>2.6184</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.9576</v>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>2.8847</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>2.9129</v>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v>2.7964</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45150</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.7633</v>
-      </c>
+        <v>45147</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>4.0664</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.0189</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.9302</v>
-      </c>
+        <v>2.558</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>4.089</v>
+        <v>2.5558</v>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>3.489</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.3082</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.4245</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.8612</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>4.2279</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.774</v>
-      </c>
+        <v>2.5251</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>4.2601</v>
+        <v>2.1507</v>
       </c>
       <c r="O18" t="n">
-        <v>3.6277</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.827</v>
-      </c>
+        <v>2.6048</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>0.9223</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.2813</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>2.7929</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>3.8369</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.2713</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>2.2914</v>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
+        <v>2.3728</v>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>2.6712</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45337</v>
+        <v>45148</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>5.5759</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.4566</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.6585</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>6.3043</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.5857</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.8207</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>6.1395</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>6.9283</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>5.9913</v>
+        <v>4.8244</v>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>5.9208</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>4.8577</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>5.1914</v>
+      </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B20" t="n">
-        <v>8.0703</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>5.9406</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.5905</v>
-      </c>
+        <v>45150</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>3.7633</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>8.447800000000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.9464</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7.2651</v>
-      </c>
+        <v>4.0664</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>6.8466</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>4.8335</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.0189</v>
+      </c>
       <c r="K20" t="n">
-        <v>6.7061</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>7.5274</v>
-      </c>
+        <v>3.9302</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.1835</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>7.5038</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>7.4315</v>
-      </c>
+        <v>5.4575</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>3.6608</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.3082</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.9057</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>5.4245</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>3.8266</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3.8612</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4.1886</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4.2279</v>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4.2601</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.6277</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>4.827</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8.116</v>
-      </c>
+        <v>45337</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>7.9031</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>7.7205</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.5679</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.5826</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>5.5759</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.4566</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.6585</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>8.2212</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.259</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>8.5731</v>
+        <v>6.3043</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>5.5857</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>0.8207</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>6.1395</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>6.9283</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.9913</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>5.9208</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>8.0703</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1263,569 +2089,1158 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>2.0175</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>5.9406</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.5905</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>8.447800000000001</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.9464</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>7.2651</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>6.8466</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>6.7061</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>7.5274</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>7.5038</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>7.4315</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7.6844</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>45344</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>8.116</v>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>7.6841</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8.3294</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.3655</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7.9199</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>8.6393</v>
+        <v>7.9031</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>8.1853</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>8.026999999999999</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5.6492</v>
-      </c>
+        <v>7.7205</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>6.5679</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>7.5826</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>8.2212</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>8.259</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v>8.5731</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7.5915</v>
-      </c>
+        <v>45345</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>8.276899999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8.4818</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.9593</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7.7735</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.7586</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>7.1822</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>7.8413</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>2.0175</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6.6539</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>45351</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>7.6844</v>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>7.2232</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.7379</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.1215</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.1656</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>7.6841</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>7.4876</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>8.3294</v>
+      </c>
       <c r="P25" t="n">
-        <v>7.3793</v>
+        <v>1.3655</v>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>7.9199</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>8.6393</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="n">
+        <v>8.1853</v>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="n">
+        <v>8.026999999999999</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>5.6492</v>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B26" t="n">
-        <v>8.768700000000001</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>45356</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>7.5915</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>5.7684</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.470499999999999</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>5.5647</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.8016</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>9.376099999999999</v>
+        <v>8.276899999999999</v>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>9.7799</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.7202</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>8.4818</v>
+      </c>
       <c r="P26" t="n">
-        <v>10.036</v>
+        <v>7.9593</v>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>7.7735</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>7.7586</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>7.1822</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="n">
+        <v>7.8413</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45372</v>
+        <v>45358</v>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>6.6539</v>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>4.9213</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.9748</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>4.7507</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.0526</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>4.8773</v>
+        <v>7.2232</v>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>5.2135</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.2421</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>7.7379</v>
+      </c>
       <c r="P27" t="n">
-        <v>5.1127</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5.0445</v>
-      </c>
+        <v>7.1215</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>7.1656</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>7.4876</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>7.3793</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45377</v>
+        <v>45370</v>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>8.768700000000001</v>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>3.0759</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.1883</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>3.156</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>5.7684</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>3.1399</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.1382</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>3.5722</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.73</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>8.470499999999999</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>5.5647</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>6.8016</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>9.376099999999999</v>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>9.7799</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>7.7202</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>10.036</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B29" t="n">
-        <v>6.6432</v>
-      </c>
+        <v>45372</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>6.4142</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6.3402</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5.8072</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6.7888</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.592</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>6.3155</v>
+        <v>4.9213</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>7.3571</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.8585</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>6.3041</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>4.9748</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>4.7507</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>5.0526</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>4.8773</v>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>5.2135</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5.2421</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>5.1127</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>5.0445</v>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B30" t="n">
-        <v>6.6428</v>
-      </c>
+        <v>45377</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>4.2093</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.1405</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6.8178</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.6762</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5.7013</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.0072</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>5.394</v>
+        <v>3.0759</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>6.9402</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.805</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>6.6031</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7.5737</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>3.1883</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>3.1399</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>3.1382</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>3.5722</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45386</v>
+        <v>45379</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>7.4281</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.951</v>
-      </c>
+      <c r="C31" t="n">
+        <v>6.6432</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>3.1813</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.3113</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.9291</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9.731400000000001</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>6.4142</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>3.4389</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.8717</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>6.3402</v>
+      </c>
       <c r="P31" t="n">
-        <v>2.8556</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.645</v>
-      </c>
+        <v>5.8072</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>6.7888</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>6.592</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>6.3155</v>
+      </c>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>7.3571</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>4.8585</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="n">
+        <v>6.3041</v>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45391</v>
+        <v>45384</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>6.4312</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.9647</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7.8604</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.8358</v>
-      </c>
+      <c r="C32" t="n">
+        <v>6.6428</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>7.0529</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.2093</v>
+      </c>
       <c r="K32" t="n">
-        <v>7.1744</v>
+        <v>6.1405</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>7.0007</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.9664</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>6.8178</v>
+      </c>
       <c r="P32" t="n">
-        <v>7.3714</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>6.7758</v>
-      </c>
+        <v>5.6762</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>5.7013</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>6.0072</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>5.394</v>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>6.9402</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>7.805</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>6.6031</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>7.5737</v>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45393</v>
+        <v>45386</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>2.1771</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2.157</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2.3215</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.2077</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.2934</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.22</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>2.2983</v>
+        <v>7.4281</v>
       </c>
       <c r="K33" t="n">
-        <v>2.0687</v>
+        <v>2.951</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>2.0268</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.213</v>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>2.3291</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.2783</v>
-      </c>
+        <v>3.1813</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>3.3113</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>2.9291</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>9.731400000000001</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>3.4389</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.8717</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>2.8556</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5.4658</v>
-      </c>
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>4.9178</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5.6302</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6.8519</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>5.5826</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.7354</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.4312</v>
+      </c>
       <c r="K34" t="n">
-        <v>5.5834</v>
+        <v>6.9647</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>7.3029</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.6341</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>7.8604</v>
+      </c>
       <c r="P34" t="n">
-        <v>7.5503</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>6.4333</v>
-      </c>
+        <v>6.8358</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>7.0529</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>7.1744</v>
+      </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>7.0007</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>6.9664</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>7.3714</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>6.7758</v>
+      </c>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45400</v>
+        <v>45393</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>3.5358</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.9979</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>3.2096</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.0809</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.1771</v>
+      </c>
       <c r="K35" t="n">
-        <v>4.4244</v>
+        <v>2.157</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1.1072</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.1589</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>2.3215</v>
+      </c>
       <c r="P35" t="n">
-        <v>3.5217</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3.171</v>
-      </c>
+        <v>2.2077</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>1.2934</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="n">
+        <v>2.2983</v>
+      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>2.0687</v>
+      </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>2.0268</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v>2.3291</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>2.2783</v>
+      </c>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45405</v>
-      </c>
-      <c r="B36" t="n">
-        <v>7.6955</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>45398</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>5.4658</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>9.7843</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.9178</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.6302</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>6.8519</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>5.5826</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>6.7354</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>5.5834</v>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="n">
+        <v>7.3029</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>6.6341</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="n">
+        <v>7.5503</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>6.4333</v>
+      </c>
+      <c r="AQ36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>3.5358</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>2.9979</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>3.2096</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>3.0809</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>4.4244</v>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="n">
+        <v>1.1072</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>3.1589</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="n">
+        <v>3.5217</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="AQ37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>7.6955</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>9.7843</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
         <v>9</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
         <v>8.663399999999999</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="n">
         <v>8.747299999999999</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AK38" t="n">
         <v>5.4647</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="n">
         <v>8.6555</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45423</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>5.2536</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.6777</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>5.7312</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>4.2674</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>4.9789</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.1898</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>4.8979</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4.5281</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>3.748</v>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>5.4823</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="n">
+        <v>5.4792</v>
+      </c>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
